--- a/datf_core/test/testcases/testcase30_csv_csv_3mill50cols_content.xlsx
+++ b/datf_core/test/testcases/testcase30_csv_csv_3mill50cols_content.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Databricks\QE_ATF\datf_core\test\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E4F34F-AB60-415E-8E45-7BF9C0BF380C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73428B2E-8EE6-4ED3-9BB7-47DFD5E072D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,7 +144,7 @@
     <t>testcase30_csv_csv_3mill50cols_content</t>
   </si>
   <si>
-    <t>/app/test/s2t/s2t_30_csv_csv_3mill50cols.xlsx</t>
+    <t>test/s2t/s2t_30_csv_csv_3mill50cols.xlsx</t>
   </si>
 </sst>
 </file>
